--- a/Archivos de proyecto/Catalogos originales/beneficiariosrfc.xlsx
+++ b/Archivos de proyecto/Catalogos originales/beneficiariosrfc.xlsx
@@ -80,15 +80,9 @@
     <t>IAHA950310MZSBRL08</t>
   </si>
   <si>
-    <t>IBARRA</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>RAVJ931103F33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calle San juan </t>
   </si>
   <si>
@@ -107,10 +101,16 @@
     <t>3200200010003</t>
   </si>
   <si>
-    <t xml:space="preserve"> JULIETita</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Saucedo</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>RAVJ931103F34</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,16 +549,16 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -567,10 +567,10 @@
         <v>42806</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3">
         <v>320010091</v>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3">
         <v>201</v>
@@ -588,16 +588,16 @@
         <v>203</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
